--- a/Data/Excel_Long/camino_totals_true_long.xlsx
+++ b/Data/Excel_Long/camino_totals_true_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:E227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>643</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1401</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>3105</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>15554</v>
+        <v>31108</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>16860</v>
+        <v>33720</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>19295</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>31891</v>
+        <v>63782</v>
       </c>
     </row>
     <row r="9">
@@ -604,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>45601</v>
+        <v>91202</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>22752</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="11">
@@ -642,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>14556</v>
+        <v>29112</v>
       </c>
     </row>
     <row r="12">
@@ -661,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>4410</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="13">
@@ -680,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>3802</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="14">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>269</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>565</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>3121</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="17">
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>3307</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="18">
@@ -775,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>9310</v>
+        <v>18620</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>12619</v>
+        <v>25238</v>
       </c>
     </row>
     <row r="20">
@@ -813,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>18804</v>
+        <v>37608</v>
       </c>
     </row>
     <row r="21">
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>24831</v>
+        <v>49662</v>
       </c>
     </row>
     <row r="22">
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>12168</v>
+        <v>24336</v>
       </c>
     </row>
     <row r="23">
@@ -870,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>6873</v>
+        <v>13746</v>
       </c>
     </row>
     <row r="24">
@@ -889,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>1388</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="25">
@@ -908,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>668</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26">
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27">
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>351</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28">
@@ -965,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>1096</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>7451</v>
+        <v>14902</v>
       </c>
     </row>
     <row r="30">
@@ -1003,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>10147</v>
+        <v>20294</v>
       </c>
     </row>
     <row r="31">
@@ -1022,7 +1022,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>13011</v>
+        <v>26022</v>
       </c>
     </row>
     <row r="32">
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>18720</v>
+        <v>37440</v>
       </c>
     </row>
     <row r="33">
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>26183</v>
+        <v>52366</v>
       </c>
     </row>
     <row r="34">
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>13470</v>
+        <v>26940</v>
       </c>
     </row>
     <row r="35">
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>7700</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="36">
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>1755</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="37">
@@ -1136,7 +1136,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>848</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="38">
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>665</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="40">
@@ -1193,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>1680</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="41">
@@ -1212,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>8115</v>
+        <v>16230</v>
       </c>
     </row>
     <row r="42">
@@ -1231,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>12924</v>
+        <v>25848</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>15182</v>
+        <v>30364</v>
       </c>
     </row>
     <row r="44">
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>20156</v>
+        <v>40312</v>
       </c>
     </row>
     <row r="45">
@@ -1288,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>27289</v>
+        <v>54578</v>
       </c>
     </row>
     <row r="46">
@@ -1307,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>15282</v>
+        <v>30564</v>
       </c>
     </row>
     <row r="47">
@@ -4709,6 +4709,44 @@
       </c>
       <c r="E225" t="n">
         <v>51356</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D226" t="n">
+        <v>11</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D227" t="n">
+        <v>12</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Long/camino_totals_true_long.xlsx
+++ b/Data/Excel_Long/camino_totals_true_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>31108</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>33720</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>38590</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>63782</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="9">
@@ -604,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>91202</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>45504</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="11">
@@ -642,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>29112</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="12">
@@ -661,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>8820</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="13">
@@ -680,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>7604</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="14">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>6242</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="17">
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>6614</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="18">
@@ -775,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>18620</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>25238</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="20">
@@ -813,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>37608</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="21">
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>49662</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="22">
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>24336</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="23">
@@ -870,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>13746</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="24">
@@ -889,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>2776</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -908,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>1336</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -965,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>14902</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="30">
@@ -1003,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>20294</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="31">
@@ -1022,7 +1022,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>26022</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32">
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>37440</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="33">
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>52366</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="34">
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>26940</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="35">
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>15400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="36">
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37">
@@ -1136,7 +1136,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1330</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40">
@@ -1193,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="41">
@@ -1212,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>16230</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="42">
@@ -1231,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>25848</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>30364</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="44">
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>40312</v>
+        <v>20156</v>
       </c>
     </row>
     <row r="45">
@@ -1288,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>54578</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="46">
@@ -1307,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>30564</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="47">
@@ -4747,6 +4747,25 @@
       </c>
       <c r="E227" t="n">
         <v>4683</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
